--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC70FB8-4B62-45EF-9516-4887B92B9955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FB2D37-76B9-4809-9ED4-77F0ACC44721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="165">
   <si>
     <r>
       <rPr>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>docs(data layer)</t>
+  </si>
+  <si>
+    <t>add api code in core(requirenment in gui dev extreme)</t>
+  </si>
+  <si>
+    <t>error solve</t>
   </si>
 </sst>
 </file>
@@ -962,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3992E4A0-7B75-42CA-A3B0-1B1B31807A4B}">
   <dimension ref="A4:N220"/>
   <sheetViews>
-    <sheetView topLeftCell="C208" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211:I220"/>
+    <sheetView topLeftCell="C199" workbookViewId="0">
+      <selection activeCell="F202" sqref="F202:I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,10 +3902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,7 +3918,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4007,6 +4013,93 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>45720</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1">
+        <f>SUM(E14:E21)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FB2D37-76B9-4809-9ED4-77F0ACC44721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11104A-1FC9-4F3B-A038-C0C7315153F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="167">
   <si>
     <r>
       <rPr>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>error solve</t>
+  </si>
+  <si>
+    <t>error solve in default validation mode in core</t>
+  </si>
+  <si>
+    <t>navigation(menu)*</t>
   </si>
 </sst>
 </file>
@@ -3902,10 +3908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,6 +4106,97 @@
         <v>8</v>
       </c>
     </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>45721</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1">
+        <f>SUM(E26:E33)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11104A-1FC9-4F3B-A038-C0C7315153F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BD0757-2716-46DA-93FB-1471FFCA7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="173">
   <si>
     <r>
       <rPr>
@@ -568,6 +568,25 @@
   </si>
   <si>
     <t>navigation(menu)*</t>
+  </si>
+  <si>
+    <t>treeview</t>
+  </si>
+  <si>
+    <t>`1.25</t>
+  </si>
+  <si>
+    <t>Dialogues &amp; Notification
+overview</t>
+  </si>
+  <si>
+    <t>Load Indicator</t>
+  </si>
+  <si>
+    <t>Load Panel</t>
+  </si>
+  <si>
+    <t>senior reconsile (normalization,custom sorting, update with join, sp)</t>
   </si>
 </sst>
 </file>
@@ -3908,10 +3927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B2:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4197,6 +4216,105 @@
         <v>8</v>
       </c>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>45722</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1">
+        <f>SUM(E37:E44)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BD0757-2716-46DA-93FB-1471FFCA7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609FACE-49C1-4FD8-BBB3-0079191CF441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="176">
   <si>
     <r>
       <rPr>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t>senior reconsile (normalization,custom sorting, update with join, sp)</t>
+  </si>
+  <si>
+    <t>popup ,popover,toast</t>
+  </si>
+  <si>
+    <t>changes in treeview</t>
+  </si>
+  <si>
+    <t>final demo *</t>
   </si>
 </sst>
 </file>
@@ -3927,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E45"/>
+  <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,6 +4324,93 @@
         <v>8</v>
       </c>
     </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <v>45723</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1">
+        <f>SUM(E48:E55)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609FACE-49C1-4FD8-BBB3-0079191CF441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EA4FD0-B3A6-46D9-932E-9CC611D857A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="178">
   <si>
     <r>
       <rPr>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>final demo *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal project </t>
+  </si>
+  <si>
+    <t>add documantation</t>
   </si>
 </sst>
 </file>
@@ -3936,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E56"/>
+  <dimension ref="B2:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:E56"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4411,6 +4417,65 @@
         <v>8</v>
       </c>
     </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <v>45724</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1">
+        <f>SUM(E59:E62)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EA4FD0-B3A6-46D9-932E-9CC611D857A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1731A338-5DE6-4E40-95EA-EB9EEB7D820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="180">
   <si>
     <r>
       <rPr>
@@ -602,6 +602,13 @@
   </si>
   <si>
     <t>add documantation</t>
+  </si>
+  <si>
+    <t>revise reconsile
+(why enumerate,order in query)</t>
+  </si>
+  <si>
+    <t>collage project work</t>
   </si>
 </sst>
 </file>
@@ -677,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -692,6 +699,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3942,10 +3952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E63"/>
+  <dimension ref="B2:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,6 +4486,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="6">
+        <v>45724</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="6"/>
+      <c r="C66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="1">
+        <f>SUM(E66:E70)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1731A338-5DE6-4E40-95EA-EB9EEB7D820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3826BC-97E8-4318-961A-AFE34142087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -609,6 +609,15 @@
   </si>
   <si>
     <t>collage project work</t>
+  </si>
+  <si>
+    <t>cloud miracle meeting p-1</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>project work</t>
   </si>
 </sst>
 </file>
@@ -3952,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E71"/>
+  <dimension ref="B2:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:E71"/>
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,7 +4497,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
-        <v>45724</v>
+        <v>45726</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4555,6 +4564,79 @@
         <v>8</v>
       </c>
     </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="6">
+        <v>45727</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1">
+        <f>SUM(E74:E78)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3826BC-97E8-4318-961A-AFE34142087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA4525-B08E-4F6A-82AC-61977E517288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="188">
   <si>
     <r>
       <rPr>
@@ -618,6 +618,22 @@
   </si>
   <si>
     <t>project work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud miracle part -2 </t>
+  </si>
+  <si>
+    <t>revise reconsile</t>
+  </si>
+  <si>
+    <t>buffer and snacks</t>
+  </si>
+  <si>
+    <t>unit&amp;branch set up</t>
+  </si>
+  <si>
+    <t>overview company setup
+sales and purchase uom</t>
   </si>
 </sst>
 </file>
@@ -3961,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E79"/>
+  <dimension ref="B2:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4637,6 +4653,93 @@
         <v>8</v>
       </c>
     </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
+        <v>45728</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="C83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="1">
+        <f>SUM(E82:E87)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA4525-B08E-4F6A-82AC-61977E517288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF240C-84FB-440C-9283-9A7C3D90AC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="191">
   <si>
     <r>
       <rPr>
@@ -634,6 +634,15 @@
   <si>
     <t>overview company setup
 sales and purchase uom</t>
+  </si>
+  <si>
+    <t>reconsile cloud miracle</t>
+  </si>
+  <si>
+    <t>practise cloud miracle</t>
+  </si>
+  <si>
+    <t>video Mticket &amp; flow of logins</t>
   </si>
 </sst>
 </file>
@@ -3977,10 +3986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E88"/>
+  <dimension ref="B2:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,6 +4749,71 @@
         <v>8</v>
       </c>
     </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <v>45729</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="C92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="1">
+        <f>SUM(E91:E94)</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF240C-84FB-440C-9283-9A7C3D90AC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9281C480-9C4B-466F-BFDB-3B34700E3A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="195">
   <si>
     <r>
       <rPr>
@@ -643,6 +643,18 @@
   </si>
   <si>
     <t>video Mticket &amp; flow of logins</t>
+  </si>
+  <si>
+    <t>over view mTicket(diff user)</t>
+  </si>
+  <si>
+    <t>changes demo</t>
+  </si>
+  <si>
+    <t>video 1 to 4 (Ticket)</t>
+  </si>
+  <si>
+    <t>collage report</t>
   </si>
 </sst>
 </file>
@@ -3986,10 +3998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E95"/>
+  <dimension ref="B2:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,6 +4826,79 @@
         <v>6</v>
       </c>
     </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <v>45734</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="6"/>
+      <c r="C98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="6"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="1">
+        <f>SUM(E98:E102)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9281C480-9C4B-466F-BFDB-3B34700E3A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB649AF-B3B7-4BFB-8187-9E4535490EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -655,6 +655,24 @@
   </si>
   <si>
     <t>collage report</t>
+  </si>
+  <si>
+    <t>mTicket video (5 to 9)</t>
+  </si>
+  <si>
+    <t>changes grid demo</t>
+  </si>
+  <si>
+    <t>given changes reconsile</t>
+  </si>
+  <si>
+    <t>resonsile</t>
+  </si>
+  <si>
+    <t>changes notification demo</t>
+  </si>
+  <si>
+    <t>revise reconsile &amp; Mticket video</t>
   </si>
 </sst>
 </file>
@@ -3998,10 +4016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E103"/>
+  <dimension ref="B2:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4899,6 +4917,152 @@
         <v>8</v>
       </c>
     </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
+        <v>45735</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="6"/>
+      <c r="C106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="6"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="1">
+        <f>SUM(E106:E110)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
+        <v>45736</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="6"/>
+      <c r="C114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="6"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="1">
+        <f>SUM(E114:E118)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB649AF-B3B7-4BFB-8187-9E4535490EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1F8568-E2DC-46BE-9D11-488ADC16BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="208">
   <si>
     <r>
       <rPr>
@@ -673,6 +673,27 @@
   </si>
   <si>
     <t>revise reconsile &amp; Mticket video</t>
+  </si>
+  <si>
+    <t>doubt reconsile (mTicket)</t>
+  </si>
+  <si>
+    <t>miticket anothor module video</t>
+  </si>
+  <si>
+    <t>over view transfer and deactive</t>
+  </si>
+  <si>
+    <t>revise editors overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reconsile (mTicket)</t>
+  </si>
+  <si>
+    <t>revise mticket overview</t>
+  </si>
+  <si>
+    <t>revise data layer</t>
   </si>
 </sst>
 </file>
@@ -4016,10 +4037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E119"/>
+  <dimension ref="B2:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,6 +5084,148 @@
         <v>8</v>
       </c>
     </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="6">
+        <v>45737</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="1">
+        <f>SUM(E122:E126)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="6">
+        <v>45738</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="6"/>
+      <c r="C130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="6"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+      <c r="C135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="1">
+        <f>SUM(E130:E134)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1F8568-E2DC-46BE-9D11-488ADC16BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DEEC0-02CF-4951-B2B1-11163891E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="213">
   <si>
     <r>
       <rPr>
@@ -694,6 +694,21 @@
   </si>
   <si>
     <t>revise data layer</t>
+  </si>
+  <si>
+    <t>pms training</t>
+  </si>
+  <si>
+    <t>overview project structure</t>
+  </si>
+  <si>
+    <t>revise past topics</t>
+  </si>
+  <si>
+    <t>autoDB video</t>
+  </si>
+  <si>
+    <t>m-ticket tagged flow and received</t>
   </si>
 </sst>
 </file>
@@ -4037,10 +4052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E135"/>
+  <dimension ref="B2:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,6 +5241,89 @@
         <v>4</v>
       </c>
     </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="6">
+        <v>45740</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+      <c r="C138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="6"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E141" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+      <c r="C144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="1">
+        <f>SUM(E138:E143)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DEEC0-02CF-4951-B2B1-11163891E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD13376C-E9EF-4DCF-894B-0B79D9560204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="218">
   <si>
     <r>
       <rPr>
@@ -709,6 +709,21 @@
   </si>
   <si>
     <t>m-ticket tagged flow and received</t>
+  </si>
+  <si>
+    <t>tfs joining (cms,acc,dms)</t>
+  </si>
+  <si>
+    <t>project flow</t>
+  </si>
+  <si>
+    <t>recvise reconsile</t>
+  </si>
+  <si>
+    <t>project structure meeting</t>
+  </si>
+  <si>
+    <t>package transfer  and overview project</t>
   </si>
 </sst>
 </file>
@@ -4052,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E144"/>
+  <dimension ref="B2:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137:E144"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,6 +5339,99 @@
         <v>8</v>
       </c>
     </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="6">
+        <v>45740</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="6"/>
+      <c r="C148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="6"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E152" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="1">
+        <f>SUM(E148:E154)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD13376C-E9EF-4DCF-894B-0B79D9560204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10558DDC-454A-40AD-BD3F-43A06ACDECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="220">
   <si>
     <r>
       <rPr>
@@ -724,6 +724,12 @@
   </si>
   <si>
     <t>package transfer  and overview project</t>
+  </si>
+  <si>
+    <t>code explore(accerp,dms)</t>
+  </si>
+  <si>
+    <t>buffer and repoort</t>
   </si>
 </sst>
 </file>
@@ -4067,10 +4073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E155"/>
+  <dimension ref="B2:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5432,6 +5438,49 @@
         <v>8</v>
       </c>
     </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="6">
+        <v>45740</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="6"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E159" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+      <c r="C160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="1">
+        <f>SUM(E158:E159)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10558DDC-454A-40AD-BD3F-43A06ACDECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7E622C-2673-4C68-826A-9DE47B3B4628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="228">
   <si>
     <r>
       <rPr>
@@ -730,6 +730,30 @@
   </si>
   <si>
     <t>buffer and repoort</t>
+  </si>
+  <si>
+    <t>master table overview</t>
+  </si>
+  <si>
+    <t>master training</t>
+  </si>
+  <si>
+    <t>task given in master meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code review </t>
+  </si>
+  <si>
+    <t>code explore(master entry)</t>
+  </si>
+  <si>
+    <t>doubt disc.</t>
+  </si>
+  <si>
+    <t>table explore</t>
+  </si>
+  <si>
+    <t>changes code</t>
   </si>
 </sst>
 </file>
@@ -4073,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E160"/>
+  <dimension ref="B2:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5481,7 +5505,158 @@
         <v>8</v>
       </c>
     </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="6">
+        <v>45747</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="6"/>
+      <c r="C165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="6"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" s="6"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E167" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="2"/>
+      <c r="C169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="1">
+        <f>SUM(E165:E168)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="6">
+        <v>45748</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="6"/>
+      <c r="C173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="6"/>
+      <c r="C174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="6"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="6"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B178" s="6"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E178" s="1">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="2"/>
+      <c r="C179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="1">
+        <f>SUM(E173:E178)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/DOMM.xlsx
+++ b/Documentation/DOMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parth-415\clone\RKIT_training\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7E622C-2673-4C68-826A-9DE47B3B4628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33161C8-5DC4-4CCD-B08B-FF8E8A25A6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C5B394D-BD69-4FF5-BC3A-C6B8AB3F0F3B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="234">
   <si>
     <r>
       <rPr>
@@ -754,6 +754,24 @@
   </si>
   <si>
     <t>changes code</t>
+  </si>
+  <si>
+    <t>master entry reconsile</t>
+  </si>
+  <si>
+    <t>docs creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revision </t>
+  </si>
+  <si>
+    <t>user Security training</t>
+  </si>
+  <si>
+    <t>docs creation (table)</t>
+  </si>
+  <si>
+    <t>startup.cs revise and new topics</t>
   </si>
 </sst>
 </file>
@@ -4097,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9195C34C-F962-4BB8-A120-D81998227467}">
-  <dimension ref="B2:E179"/>
+  <dimension ref="B2:E197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5655,6 +5673,160 @@
         <v>8</v>
       </c>
     </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="6">
+        <v>45749</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="6"/>
+      <c r="C182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="6"/>
+      <c r="C183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="6"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E184" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="6"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E185" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="6"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="6"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="2"/>
+      <c r="C188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" s="1">
+        <f>SUM(E182:E187)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="6">
+        <v>45750</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="6"/>
+      <c r="C191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+      <c r="C192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="6"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E193" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="6"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E194" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="6"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="6"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="2"/>
+      <c r="C197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="1">
+        <f>SUM(E191:E196)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
